--- a/test/erwartetes_Ergebnis/Kicktipp_Auswertung_Spieltag1.xlsx
+++ b/test/erwartetes_Ergebnis/Kicktipp_Auswertung_Spieltag1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ergebnisse aktueller Spieltag" sheetId="1" state="visible" r:id="rId2"/>
@@ -111,24 +111,24 @@
     <t xml:space="preserve">Tordifferenz</t>
   </si>
   <si>
+    <t xml:space="preserve">SpVgg Greuther Fürth</t>
+  </si>
+  <si>
     <t xml:space="preserve">VfL Wolfsburg</t>
   </si>
   <si>
-    <t xml:space="preserve">SpVgg Greuther Fürth</t>
+    <t xml:space="preserve">Arminia Bielefeld</t>
   </si>
   <si>
     <t xml:space="preserve">Bayer Leverkusen</t>
   </si>
   <si>
-    <t xml:space="preserve">Arminia Bielefeld</t>
+    <t xml:space="preserve">Hertha BSC</t>
   </si>
   <si>
     <t xml:space="preserve">FC Bayern München</t>
   </si>
   <si>
-    <t xml:space="preserve">Hertha BSC</t>
-  </si>
-  <si>
     <t xml:space="preserve">FC Augsburg</t>
   </si>
   <si>
@@ -147,19 +147,19 @@
     <t xml:space="preserve">RB Leipzig</t>
   </si>
   <si>
+    <t xml:space="preserve">Borussia Mönchengladbach</t>
+  </si>
+  <si>
     <t xml:space="preserve">1. FC Union Berlin</t>
   </si>
   <si>
-    <t xml:space="preserve">Borussia Mönchengladbach</t>
+    <t xml:space="preserve">1. FC Köln</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC Freiburg</t>
   </si>
   <si>
     <t xml:space="preserve">VfL Bochum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SC Freiburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. FC Köln</t>
   </si>
   <si>
     <t xml:space="preserve">VfB Stuttgart</t>
@@ -198,7 +198,7 @@
       <b val="true"/>
       <sz val="11"/>
       <name val="Cambria"/>
-      <family val="0"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
@@ -411,28 +411,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -562,13 +562,13 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,7 +585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -602,7 +602,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
@@ -619,7 +619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>1</v>
       </c>
@@ -636,7 +636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>1</v>
       </c>
@@ -653,7 +653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>1</v>
       </c>
@@ -670,7 +670,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>1</v>
       </c>
@@ -687,7 +687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>1</v>
       </c>
@@ -704,7 +704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>1</v>
       </c>
@@ -721,7 +721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>1</v>
       </c>
@@ -756,11 +756,11 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.71"/>
   </cols>
@@ -790,7 +790,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>29</v>
@@ -799,10 +799,10 @@
         <v>3</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -810,7 +810,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>30</v>
@@ -819,58 +819,58 @@
         <v>3</v>
       </c>
       <c r="E3" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F4" s="11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="F3" s="6" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="F4" s="9" t="n">
+      <c r="F5" s="14" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" s="12" t="n">
-        <v>11</v>
-      </c>
-      <c r="F5" s="12" t="n">
-        <v>4</v>
-      </c>
-    </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>33</v>
@@ -879,10 +879,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -890,7 +890,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>34</v>
@@ -899,14 +899,14 @@
         <v>3</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
+      <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -946,7 +946,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
+      <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -986,7 +986,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
+      <c r="A12" s="3" t="n">
         <v>9</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -1026,11 +1026,11 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="n">
+      <c r="A14" s="3" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>41</v>
@@ -1039,10 +1039,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1050,7 +1050,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>42</v>
@@ -1059,58 +1059,58 @@
         <v>0</v>
       </c>
       <c r="E15" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" s="11" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="F17" s="14" t="n">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="F15" s="6" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="F16" s="9" t="n">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="12" t="n">
-        <v>7</v>
-      </c>
-      <c r="F17" s="12" t="n">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>45</v>
@@ -1119,29 +1119,29 @@
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>-2</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="n">
+      <c r="A19" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="9" t="n">
+      <c r="D19" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="E19" s="9" t="n">
+      <c r="E19" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F19" s="9" t="n">
+      <c r="F19" s="11" t="n">
         <v>-11</v>
       </c>
     </row>
@@ -1167,13 +1167,13 @@
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.86"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="n">
         <v>2</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="n">
         <v>2</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="18" t="n">
         <v>2</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="18" t="n">
         <v>2</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="18" t="n">
         <v>2</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="18" t="n">
         <v>2</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="18" t="n">
         <v>2</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="18" t="n">
         <v>2</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="21" t="n">
         <v>2</v>
       </c>
